--- a/xcrud_db.xlsx
+++ b/xcrud_db.xlsx
@@ -6,23 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Productos" r:id="rId3" sheetId="1"/>
+    <sheet name="Dashboard" r:id="rId3" sheetId="1"/>
+    <sheet name="Products" r:id="rId4" sheetId="2"/>
+    <sheet name="Users" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Hola mundo</t>
-  </si>
-  <si>
-    <t>Enger</t>
-  </si>
-  <si>
-    <t>Jimenez</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,24 +57,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/xcrud_db.xlsx
+++ b/xcrud_db.xlsx
@@ -14,7 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="5">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Soup</t>
+  </si>
+  <si>
+    <t>Chicken soup</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -57,12 +73,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.51953125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="12.8828125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="4.9375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="3.26953125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="1.0390625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="1.0390625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="1.0390625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="1.0390625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="F16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="G17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
